--- a/data/trans_orig/P78DS3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78DS3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A992301-BB50-43F7-8421-29BC57AB479F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B37852-79AF-4921-BFD3-3086BA3EC1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1051F6A0-396C-43A1-84A0-37FB9ABEFF2D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D63EDA8-3DFD-4987-A4E8-410D7B2F0929}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="130">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 3 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -92,13 +92,13 @@
     <t>Tasa de autónomos</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>2,63%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,41%</t>
   </si>
   <si>
     <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
@@ -107,13 +107,13 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>1,93%</t>
   </si>
   <si>
     <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
@@ -131,7 +131,7 @@
     <t>98,78%</t>
   </si>
   <si>
-    <t>95,2%</t>
+    <t>95,83%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -146,7 +146,7 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>97,42%</t>
+    <t>97,72%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -155,7 +155,7 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>0,43%</t>
@@ -164,7 +164,7 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -176,7 +176,7 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,72%</t>
+    <t>97,52%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -185,7 +185,7 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>99,08%</t>
+    <t>99,01%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,78 +197,78 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,52%</t>
+    <t>0,49%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
     <t>0,11%</t>
   </si>
   <si>
@@ -284,13 +284,13 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,54%</t>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -311,88 +311,85 @@
     <t>99,45%</t>
   </si>
   <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
     <t>99,93%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>99,66%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -401,13 +398,13 @@
     <t>99,64%</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>0,25%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -416,13 +413,13 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -840,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A232C8C-1191-475A-AFD9-41231D1D0122}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAEB28D-DB6D-45F2-AB3E-FAD031C2C3FA}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2383,7 +2380,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -2689,7 +2686,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2907,13 @@
         <v>1523</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -2940,13 +2937,13 @@
         <v>1523</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,7 +2979,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -2997,7 +2994,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -3443,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -3629,7 +3626,7 @@
         <v>73</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>32</v>
@@ -3641,10 +3638,10 @@
         <v>990776</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>32</v>
@@ -3656,10 +3653,10 @@
         <v>1671249</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>32</v>
@@ -3736,7 +3733,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H58" s="7">
         <v>5</v>
@@ -3751,7 +3748,7 @@
         <v>121</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="M58" s="7">
         <v>7</v>
@@ -3766,7 +3763,7 @@
         <v>83</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3814,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3835,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -3889,7 +3886,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -3904,7 +3901,7 @@
         <v>79</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="M61" s="7">
         <v>5</v>
@@ -3916,10 +3913,10 @@
         <v>58</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,7 +3952,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M62" s="7">
         <v>2</v>
@@ -3970,7 +3967,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,7 +4054,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -4072,7 +4069,7 @@
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4084,13 @@
         <v>3264748</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H65" s="7">
         <v>5114</v>
@@ -4105,10 +4102,10 @@
         <v>70</v>
       </c>
       <c r="K65" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M65" s="7">
         <v>8356</v>
@@ -4120,10 +4117,10 @@
         <v>86</v>
       </c>
       <c r="P65" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,7 +4176,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78DS3_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B37852-79AF-4921-BFD3-3086BA3EC1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B48E6F9-083C-4B4D-810F-224CD0BD8C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D63EDA8-3DFD-4987-A4E8-410D7B2F0929}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E8CD702-2FA4-4BA4-9DBB-B0320FF30FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -837,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAEB28D-DB6D-45F2-AB3E-FAD031C2C3FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D523B3A-C081-4D37-86E3-EC39AA07C77A}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
